--- a/Data/manual_inspection.xlsx
+++ b/Data/manual_inspection.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20377"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B116C965-5A30-4BD3-97FB-28F27955933E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88D68B8A-712F-49BC-8B85-2B4DA1D908D6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27255" windowHeight="9180" xr2:uid="{E1A5D189-D834-490D-8456-ED4464D9E812}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="33">
   <si>
     <t>mobile FAILING 250</t>
   </si>
@@ -80,9 +80,6 @@
   </si>
   <si>
     <t>FN</t>
-  </si>
-  <si>
-    <t>+</t>
   </si>
   <si>
     <t>mobile PASSING 250</t>
@@ -580,7 +577,7 @@
   <dimension ref="A1:V50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -596,7 +593,7 @@
   <sheetData>
     <row r="1" spans="1:22">
       <c r="B1" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
@@ -606,18 +603,18 @@
       <c r="H1" s="5"/>
       <c r="I1" s="6"/>
       <c r="J1" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
       <c r="P1" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q1" s="5"/>
       <c r="R1" s="5"/>
       <c r="S1" s="6"/>
       <c r="T1" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="U1" s="8"/>
       <c r="V1" s="8"/>
@@ -686,7 +683,7 @@
     </row>
     <row r="3" spans="1:22">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" s="1">
         <v>77</v>
@@ -723,7 +720,7 @@
         <v>56</v>
       </c>
       <c r="O3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P3" s="1">
         <v>91</v>
@@ -1026,16 +1023,12 @@
       <c r="B9" s="2"/>
       <c r="D9" s="2"/>
       <c r="F9" s="2"/>
-      <c r="P9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="R9" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="P9" s="2"/>
+      <c r="R9" s="2"/>
     </row>
     <row r="10" spans="1:22">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>1</v>
@@ -1062,16 +1055,16 @@
         <v>8</v>
       </c>
       <c r="J10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K10" t="s">
         <v>10</v>
       </c>
       <c r="L10" t="s">
+        <v>22</v>
+      </c>
+      <c r="O10" t="s">
         <v>23</v>
-      </c>
-      <c r="O10" t="s">
-        <v>24</v>
       </c>
       <c r="P10" s="1" t="s">
         <v>1</v>
@@ -1086,18 +1079,18 @@
         <v>4</v>
       </c>
       <c r="T10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="U10" t="s">
         <v>10</v>
       </c>
       <c r="V10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:22">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B11" s="1">
         <v>23</v>
@@ -1134,7 +1127,7 @@
         <v>154</v>
       </c>
       <c r="O11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P11" s="1">
         <v>25</v>
@@ -1453,29 +1446,29 @@
     </row>
     <row r="47" spans="5:12">
       <c r="F47" t="s">
+        <v>24</v>
+      </c>
+      <c r="H47" t="s">
         <v>25</v>
-      </c>
-      <c r="H47" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="48" spans="5:12">
       <c r="G48" t="s">
+        <v>26</v>
+      </c>
+      <c r="H48" t="s">
         <v>27</v>
       </c>
-      <c r="H48" t="s">
+      <c r="I48" t="s">
         <v>28</v>
-      </c>
-      <c r="I48" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="49" spans="6:9">
       <c r="F49" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G49" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H49">
         <v>299</v>
@@ -1486,7 +1479,7 @@
     </row>
     <row r="50" spans="6:9">
       <c r="G50" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H50">
         <v>69</v>
